--- a/data/trans_dic/P7A_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P7A_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &gt; 60 años</t>
+          <t>Hogares con personas &gt; 60 años (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,13%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,04%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>36,6%</t>
+          <t>32,77%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>31,56%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>30,71%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>42,2%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,0; 45,41</t>
+          <t>26,5; 41,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,9; 43,59</t>
+          <t>23,96; 40,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,4; 41,21</t>
+          <t>22,38; 37,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,73; 40,45</t>
+          <t>19,86; 35,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,41; 41,25</t>
+          <t>23,88; 43,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,2; 40,64</t>
+          <t>27,22; 40,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,65; 43,87</t>
+          <t>27,35; 40,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,97; 50,21</t>
+          <t>27,16; 40,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,52; 41,42</t>
+          <t>27,73; 41,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,22; 40,03</t>
+          <t>41,67; 56,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,72; 40,8</t>
+          <t>28,56; 38,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,96; 43,32</t>
+          <t>27,58; 37,8</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>26,76; 36,55</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>25,61; 36,09</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>34,92; 47,95</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>29,08%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24,91%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>24,83%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>34,33%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,88; 37,37</t>
+          <t>21,16; 36,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,31; 36,09</t>
+          <t>21,78; 37,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,07; 35,76</t>
+          <t>21,02; 36,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,08; 34,56</t>
+          <t>18,42; 34,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,52; 36,05</t>
+          <t>31,6; 50,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,11; 34,61</t>
+          <t>16,11; 29,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,46; 33,22</t>
+          <t>16,91; 30,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,74; 35,31</t>
+          <t>15,16; 27,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,99; 34,4</t>
+          <t>16,96; 30,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,87; 33,37</t>
+          <t>20,05; 41,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,69; 32,69</t>
+          <t>20,27; 30,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,12; 33,35</t>
+          <t>20,71; 31,02</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>20,48; 30,34</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>20,21; 29,94</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>28,11; 41,44</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>29,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>28,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>36,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>37,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>34,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>38,33%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>36,35%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>32,9%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>31,6%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>30,15%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>35,78%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,95; 51,82</t>
+          <t>10,49; 48,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,79; 50,42</t>
+          <t>9,79; 47,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,42; 50,49</t>
+          <t>10,43; 47,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,98; 49,48</t>
+          <t>9,28; 46,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,71; 51,99</t>
+          <t>12,8; 57,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,87; 52,96</t>
+          <t>20,53; 52,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,58; 51,12</t>
+          <t>20,66; 52,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,08; 48,28</t>
+          <t>18,62; 51,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,11; 48,67</t>
+          <t>17,78; 50,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>27,45; 47,71</t>
+          <t>20,4; 54,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27,07; 46,0</t>
+          <t>20,23; 46,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,41; 44,22</t>
+          <t>20,11; 46,38</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>19,43; 44,97</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>18,16; 43,4</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>22,42; 50,62</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>29,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>39,6%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>30,04%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>28,87%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>28,27%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>38,42%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,72; 40,1</t>
+          <t>25,41; 36,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,95; 38,95</t>
+          <t>24,01; 35,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,96; 37,82</t>
+          <t>23,48; 34,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,56; 36,62</t>
+          <t>21,0; 32,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,16; 38,11</t>
+          <t>29,76; 43,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 37,01</t>
+          <t>24,99; 33,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,36; 37,51</t>
+          <t>25,6; 34,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,47; 41,08</t>
+          <t>24,46; 33,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,67; 37,22</t>
+          <t>25,28; 34,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,82; 36,51</t>
+          <t>33,48; 45,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,34; 36,24</t>
+          <t>26,26; 33,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,19; 37,13</t>
+          <t>26,52; 33,58</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>25,26; 32,1</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>24,82; 31,79</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>34,03; 42,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &gt; 60 años (tasa de respuesta: 99,82%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>122468</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>136349</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>108137</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>102949</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>178473</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>143970</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>170564</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>139770</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>138589</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>272237</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>266438</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>306913</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>247906</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>241537</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>450710</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>96906; 153432</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>102515; 171646</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>81530; 136816</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>75265; 132726</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>122314; 224965</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>118488; 175147</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>139153; 207541</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>114363; 170983</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>113003; 169270</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>231606; 314973</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>228758; 307460</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>258284; 354020</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>210162; 287048</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>201388; 283803</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>372943; 512081</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>87721</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>105679</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>91384</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>84587</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>165632</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>77860</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>98694</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>69981</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>76543</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>122891</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>165581</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>204373</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>161365</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>161131</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>288522</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>64472; 111813</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>78294; 134627</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>66927; 117334</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>59411; 109694</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>128674; 203924</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>56414; 104411</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>71941; 131482</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>49922; 91666</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>55351; 99355</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>86875; 179964</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>132717; 198074</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>162525; 243414</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>132663; 196518</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>131176; 194295</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>236227; 348268</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24760</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29078</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22814</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23644</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>41966</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>30510</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>37695</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28111</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>27045</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>40586</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>55270</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>66772</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>50924</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>50689</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>82552</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8900; 40899</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9965; 48610</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8306; 38068</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7942; 40153</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15278; 69127</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16964; 43670</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20905; 53465</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15183; 41595</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14681; 41730</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22719; 60930</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>33877; 77272</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>40818; 94116</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>31308; 72470</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>30534; 72968</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>51731; 116803</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>234949</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>271106</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>222334</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>211180</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>386070</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>252340</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>306953</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>237861</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>242177</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>435714</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>487289</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>578059</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>460195</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>453357</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>821784</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>191932; 276689</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>213424; 316590</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>179019; 261667</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>165291; 253485</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>309156; 450421</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>216926; 294574</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>265055; 357922</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>203512; 275896</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>206410; 281137</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>368403; 497046</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>426300; 544957</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>510375; 646131</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>402749; 511707</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>397974; 509717</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>727834; 910412</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
